--- a/resources/ExternalDataSourceExcel.xlsx
+++ b/resources/ExternalDataSourceExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjali_namdeo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\MiniProject8\miniProject\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB351508-662E-4927-BDFE-C588345A4B01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7B1603-308D-4271-A492-05F19FF0418F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,22 +55,22 @@
     <t>coco3</t>
   </si>
   <si>
-    <t>coco14@gmail.com</t>
-  </si>
-  <si>
-    <t>coco14</t>
-  </si>
-  <si>
     <t>qwerty</t>
   </si>
   <si>
     <t>coco4</t>
   </si>
   <si>
-    <t>coco15</t>
-  </si>
-  <si>
-    <t>coco16@gmail.com</t>
+    <t>mim1@gmail.com</t>
+  </si>
+  <si>
+    <t>mim1</t>
+  </si>
+  <si>
+    <t>mim2@gmail.com</t>
+  </si>
+  <si>
+    <t>mim2</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,10 +462,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -479,16 +479,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -516,7 +516,7 @@
         <v>123344</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
